--- a/backend/pages/excel/excel-certificate-006-2rows-event.xlsx
+++ b/backend/pages/excel/excel-certificate-006-2rows-event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBD675-83BE-4C11-8AC4-16033F1BED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B94712-F6AF-45E4-843A-EBA262364EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
   </bookViews>
@@ -77,10 +77,10 @@
     <t>"Science Today is Technology Tomorrow"</t>
   </si>
   <si>
-    <t>นิทรรศการวันวิทยาศาสตร์ ประจำปี 2566</t>
-  </si>
-  <si>
     <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ. 2566</t>
+  </si>
+  <si>
+    <t>นิทรรศการวันวิทยาศาสตร์</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
